--- a/biology/Zoologie/Hydrolagus/Hydrolagus.xlsx
+++ b/biology/Zoologie/Hydrolagus/Hydrolagus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hydrolagus est un genre de chimères (poissons abyssaux proches des requins).
 </t>
@@ -511,9 +523,11 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre se distingue de Chimaera par le fait que la nageoire anale est confluente avec la caudale[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre se distingue de Chimaera par le fait que la nageoire anale est confluente avec la caudale,.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Quatre espèces sont connues de l'Atlantique nord-est: H. affinis,  H. lusitanicus,  H. mirabilis et 
-H. pallidus[4].
+H. pallidus.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (9 mars 2015)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (9 mars 2015) :
 Hydrolagus affinis (de Brito Capello, 1868)
 Hydrolagus africanus (Gilchrist, 1922)
 Hydrolagus alberti Bigelow &amp; Schroeder, 1951
